--- a/medicine/Psychotrope/Poulet_à_la_comtoise/Poulet_à_la_comtoise.xlsx
+++ b/medicine/Psychotrope/Poulet_à_la_comtoise/Poulet_à_la_comtoise.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Poulet_%C3%A0_la_comtoise</t>
+          <t>Poulet_à_la_comtoise</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Le poulet à la comtoise est une recette traditionnelle franc-comtoise à base des produits régionaux poule de Bresse jurassienne, comté franc-comtois, et vin blanc du Jura[1].
+Le poulet à la comtoise est une recette traditionnelle franc-comtoise à base des produits régionaux poule de Bresse jurassienne, comté franc-comtois, et vin blanc du Jura.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Poulet_%C3%A0_la_comtoise</t>
+          <t>Poulet_à_la_comtoise</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Recette</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Faire revenir et dorer des morceaux de poulet à la cocotte. Ajouter le vin blanc, saler, poivrer. Puis faire gratiner les morceaux de poulet dans un plat au four, avec une sauce à la crème, au beurre, et au comté râpé[2],[3],[4]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Faire revenir et dorer des morceaux de poulet à la cocotte. Ajouter le vin blanc, saler, poivrer. Puis faire gratiner les morceaux de poulet dans un plat au four, avec une sauce à la crème, au beurre, et au comté râpé. 
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Poulet_%C3%A0_la_comtoise</t>
+          <t>Poulet_à_la_comtoise</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Quelques variantes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Coq au vin jaune
 Poulet Gaston Gérard
